--- a/test-data/OrangeData.xlsx
+++ b/test-data/OrangeData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labuser\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labuser\Documents\Selenium Session\automation_workspace\EmployeeManagementAutomation\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Username</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>bhanu</t>
-  </si>
-  <si>
-    <t>bhanu123</t>
   </si>
   <si>
     <t>Invalid credential</t>
@@ -397,7 +394,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -420,22 +417,22 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>454545</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/test-data/OrangeData.xlsx
+++ b/test-data/OrangeData.xlsx
@@ -9,15 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="invalidLoginTest" sheetId="3" r:id="rId3"/>
     <sheet name="validLoginTest" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="addValidEmployeeTest" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -50,6 +49,48 @@
   </si>
   <si>
     <t>bala123</t>
+  </si>
+  <si>
+    <t>Time at Work</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>expectedValue</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>middlename</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>expectedProfileName</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>wick</t>
+  </si>
+  <si>
+    <t>john wick</t>
   </si>
 </sst>
 </file>
@@ -393,7 +434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -442,36 +483,102 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>